--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="20" windowWidth="27640" windowHeight="17200"/>
+    <workbookView xWindow="4720" yWindow="1460" windowWidth="27640" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Student Git Address: https://github.com/Mush-kinn/GraphicsII_FS.git</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1061,7 +1064,9 @@
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
@@ -3023,7 +3028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="1460" windowWidth="27640" windowHeight="17200"/>
+    <workbookView xWindow="5655" yWindow="1455" windowWidth="27645" windowHeight="17205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,25 +949,25 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="106.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="24.5" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>92</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>93</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1371,7 +1371,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1549,7 +1549,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1566,7 +1566,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>45</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>68</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>69</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1877,7 +1877,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1894,7 +1894,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>82</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>81</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>84</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>83</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>85</v>
       </c>
@@ -2013,7 +2013,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>86</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2055,7 +2055,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2072,7 +2072,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>8</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>58</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>55</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>65</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2183,7 +2183,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2200,7 +2200,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>48</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>80</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>87</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2336,7 +2336,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>88</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>89</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>70</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>71</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>66</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>57</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2564,7 +2564,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2581,7 +2581,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2642,7 +2642,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2659,7 +2659,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>76</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>77</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>79</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>78</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>74</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>73</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>75</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2821,7 +2821,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2838,7 +2838,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>32</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>29</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2916,7 +2916,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2930,80 +2930,80 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
     </row>
   </sheetData>
@@ -3028,7 +3028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3099,7 +3099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3116,7 +3116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1455" windowWidth="27645" windowHeight="17205"/>
+    <workbookView xWindow="5660" yWindow="1420" windowWidth="27640" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,25 +949,25 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="106.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="106.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>92</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>93</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
@@ -1067,14 +1067,16 @@
       <c r="E4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
@@ -1090,10 +1092,10 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
@@ -1126,7 +1128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1196,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -1215,7 +1217,7 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
@@ -1228,7 +1230,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -1259,7 +1261,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="11" t="s">
         <v>64</v>
       </c>
@@ -1293,7 +1295,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -1318,7 +1320,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1335,7 +1337,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
@@ -1354,7 +1356,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1371,7 +1373,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1388,7 +1390,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1409,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1432,7 +1434,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
@@ -1457,7 +1459,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -1482,7 +1484,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
@@ -1507,7 +1509,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
@@ -1532,7 +1534,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1549,7 +1551,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1566,7 +1568,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1587,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1610,7 +1612,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1635,7 +1637,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1660,7 +1662,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
@@ -1685,7 +1687,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="11" t="s">
         <v>45</v>
       </c>
@@ -1710,7 +1712,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -1735,7 +1737,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
@@ -1760,7 +1762,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
@@ -1785,7 +1787,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="11" t="s">
         <v>68</v>
       </c>
@@ -1810,7 +1812,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="11" t="s">
         <v>69</v>
       </c>
@@ -1835,7 +1837,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1862,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="11"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1877,7 +1879,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="11"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1894,7 +1896,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="9" t="s">
         <v>82</v>
       </c>
@@ -1913,7 +1915,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="11" t="s">
         <v>81</v>
       </c>
@@ -1938,7 +1940,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="11" t="s">
         <v>84</v>
       </c>
@@ -1963,7 +1965,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="11" t="s">
         <v>83</v>
       </c>
@@ -1988,7 +1990,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="11" t="s">
         <v>85</v>
       </c>
@@ -2013,7 +2015,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="11" t="s">
         <v>86</v>
       </c>
@@ -2038,7 +2040,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="8"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2055,7 +2057,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="8"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2072,7 +2074,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="9" t="s">
         <v>8</v>
       </c>
@@ -2091,7 +2093,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="11" t="s">
         <v>58</v>
       </c>
@@ -2116,7 +2118,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="11" t="s">
         <v>55</v>
       </c>
@@ -2141,7 +2143,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="11" t="s">
         <v>65</v>
       </c>
@@ -2166,7 +2168,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="8"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2183,7 +2185,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="8"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2200,7 +2202,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="9" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2221,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="11" t="s">
         <v>48</v>
       </c>
@@ -2244,7 +2246,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="11" t="s">
         <v>80</v>
       </c>
@@ -2269,7 +2271,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="11" t="s">
         <v>87</v>
       </c>
@@ -2294,7 +2296,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="11" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2321,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="8"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2336,7 +2338,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="8"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2353,7 +2355,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="9" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2374,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="10" t="s">
         <v>88</v>
       </c>
@@ -2397,7 +2399,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="10" t="s">
         <v>89</v>
       </c>
@@ -2422,7 +2424,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="10" t="s">
         <v>70</v>
       </c>
@@ -2447,7 +2449,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="10" t="s">
         <v>71</v>
       </c>
@@ -2472,7 +2474,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -2497,7 +2499,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="21" t="s">
         <v>66</v>
       </c>
@@ -2522,7 +2524,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="10" t="s">
         <v>57</v>
       </c>
@@ -2547,7 +2549,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="8"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2564,7 +2566,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2581,7 +2583,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="9" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2602,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="11" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2627,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="11"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2642,7 +2644,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="11"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2659,7 +2661,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="9" t="s">
         <v>76</v>
       </c>
@@ -2678,7 +2680,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="11" t="s">
         <v>77</v>
       </c>
@@ -2699,7 +2701,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="11" t="s">
         <v>79</v>
       </c>
@@ -2720,7 +2722,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="11" t="s">
         <v>78</v>
       </c>
@@ -2741,7 +2743,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="11" t="s">
         <v>74</v>
       </c>
@@ -2762,7 +2764,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="11" t="s">
         <v>73</v>
       </c>
@@ -2783,7 +2785,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="11" t="s">
         <v>75</v>
       </c>
@@ -2804,7 +2806,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="8"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2821,7 +2823,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="8"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2838,7 +2840,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="9" t="s">
         <v>32</v>
       </c>
@@ -2862,7 +2864,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="11" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +2884,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="11" t="s">
         <v>29</v>
       </c>
@@ -2902,7 +2904,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="11"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2916,7 +2918,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="11"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2930,80 +2932,80 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="12"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="12"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="12"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="12"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="12"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="12"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="12"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="13"/>
     </row>
   </sheetData>
@@ -3028,7 +3030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3099,7 +3101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3116,7 +3118,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
